--- a/resources/cellsubtypes.xlsx
+++ b/resources/cellsubtypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D648DBB9-0567-402F-B2C0-D819A6F7AC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E092E0C-F095-4E2C-BB8B-2857549025FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>CellType</t>
   </si>
   <si>
-    <t>Macrophage</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>tumor-associated macrophages</t>
+  </si>
+  <si>
+    <t>Macrophages</t>
   </si>
 </sst>
 </file>
@@ -446,11 +446,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="70.21875" customWidth="1"/>
     <col min="3" max="3" width="48.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="64.5546875" style="3" customWidth="1"/>
@@ -475,18 +476,18 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
@@ -494,31 +495,31 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/resources/cellsubtypes.xlsx
+++ b/resources/cellsubtypes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\scGEAToolbox\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcai\Documents\GitHub\scGEAToolbox\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E092E0C-F095-4E2C-BB8B-2857549025FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41E9983-1D51-40EB-B3C3-97C97318751F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>PositiveMarkers</t>
   </si>
@@ -67,6 +67,144 @@
   </si>
   <si>
     <t>Macrophages</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>Adrenergic</t>
+  </si>
+  <si>
+    <t>TH,DDC,DBH,PNMT,SLC18A2,NPFF,SLC12A7,SYT1</t>
+  </si>
+  <si>
+    <t>Cholinergic</t>
+  </si>
+  <si>
+    <t>CHAT,SLC18A3,ACHE,SLC5A7,TAC1,BRCA1,ACLY</t>
+  </si>
+  <si>
+    <t>Dopaminergic</t>
+  </si>
+  <si>
+    <t>TH,SLC6A3,FOXA2,KCNJ6,NR4A2,LMX1B,CACNA2D2,CADPS2,CHRNA6,MAPK8IP2,NTN1,PRKCG,SCN2A,TENM1,ZIM3,DDC,SLC18A2,SLC18A3,NEUROD6,SMAD3,PITX3</t>
+  </si>
+  <si>
+    <t>Enteric</t>
+  </si>
+  <si>
+    <t>HIVEP3,PLEKHA5,IGF2BP3,ARHGAP26,TTBK2,ASTN1,CACNA1E,TUB,FILIP1,GCNT2,VEZT,RET,AHDC1,MAP6,RGMB,FBXO7,PPP2R5B,SNX21,FSTL5,LIX1,RGS3,CYTH3,TSHZ1,STXBP5,ATF5,DMKN,CACNA1B,PIK3CA,ZDHHC2,MYL1,EML5,MFSD6,SCN7A,ARHGEF28,HAND2,VSTM2L,FAM19A5,EFNA5,HOXB4,TLX2,GOLGA7B,SLC18A3,TOX,CELF6,GPR22,PLCE1,CYB561,GFRA2,FLOT2,SLC7A14,JPH3,CASZ1,TAC1,SCN3A,CHRNA3,PARVA,SLC10A4,TM4SF4,FAM19A1,SLC5A7,PHOX2B,PIRT,HOXB5,HOXA5,GAL,CARTPT,NMU,VIP,CCK</t>
+  </si>
+  <si>
+    <t>GABAergic</t>
+  </si>
+  <si>
+    <t>SLC6A1,GABBR2,GAD1,GADD45B,PAX2,SLC32A1,GAD2,VIP,SST,PVALB,TNFAIP8L3,SEMA3C,MYBPC1,PARM1,DLX1</t>
+  </si>
+  <si>
+    <t>Glutaminergic</t>
+  </si>
+  <si>
+    <t>SLC17A7,SLC17A6,GRIN1,GRIN2B,GLS,MEIS2,SLC17A8,SLC1A1,SLC1A2,SLC1A6</t>
+  </si>
+  <si>
+    <t>Glycinergic</t>
+  </si>
+  <si>
+    <t>SLC6A9,SLC32A1</t>
+  </si>
+  <si>
+    <t>Immature</t>
+  </si>
+  <si>
+    <t>PAX6,PCLO,CUX2,SLC12A5,POMC,STIM2,RAX,CUL5,HIVEP2,FUT9,TBR1,PROX1,NTRK3,RND2,FEZF2,SOX5,ROBO1,EPHA7,EPHA3,YY2,SLC1A1,NOTCH3,NOTCH1,LHX6,NES,RBFOX3,CREB1,NEUROD1,ASCL1,NTRK1,SYN1,NF1,BCL2,SLC6A5,FOXD2,ICAM5,SSTR2,NEUROG2</t>
+  </si>
+  <si>
+    <t>Interneurons</t>
+  </si>
+  <si>
+    <t>CALB1,CCK,CHAT,VSX2,EN1,ETV1,EVX1,GAD1,ISL1,LHX1,LHX5,LHX3,LHX6,GRM1,NPY,OPRM1,GRIN2D,NOS1,PVALB,PAX2,SST,TACR1,VIP,CRHR1,PACSIN1,SYN1,FGF12,NXPH1,SYT7,PTPRO,DLGAP1,GNG4,HAP1,SHISA8,PCBP3,ABAT,PCP4L1,GAL,TH,SYNPR,TRH,ADCY8,CTGF,EML5,TMEM132D,BACE1,CACNG2,ISCA1,LPGAT1,NAT14,SLC12A5,DEPTOR,SLC22A15,PDE4A,CACNA1I,FRYL,SURF1,TRIM9,KCNC1,RAB3B,CDK17,RGS17,ABCC5,RAB26,VLDLR,CACNG7,INAFM1,BRINP1,PIANP,CPLX1,SHISA6,DHRS3,GRIA4,NRSN2,CDHR1,ABR,NRN1,HIVEP2,NXPH4,CDH4,CHST1,SHISA9,EOMES,NMB,LY6G6E,CALN1,CASK,CACNA1E,FAM81A,CAMKV,ARHGAP21,DDN,SV2B,FRRS1L,ACSL4,CAMK4,NPTXR,LINGO1,HPCAL4,LMO3,LYPD1,CHN1,NRGN,SLC17A7,CAMK2A,PRKCB,NCALD,RAB15,FBXW11,ADCY1,FBXO11,IGSF21,SRGAP3,NTNG1,MAGEE1,SCAMP1,PSD3,RORA,DCAF7,VGF,EID2,RGMA,SCRT1,POU2F2,NBEA,SRGAP1,FCHSD2,SLC16A1,SLC36A1,ATG12,SLC17A6,AGAP1,ZDHHC22,ACBD5,AQP4,TMEM163,ZDHHC17,ZIC4,NEFM,L1CAM,IDS,DNM3,DNAJC6,ADGRA1,DZANK1,SCN2B,HSPA12A,SYT13,RAMP3,LYNX1,KCNA2,OXR1,DISP2,PCSK2,SHOX2,SCN8A,AAK1,GABRA4,NRIP3,HLF,PRKCD,PTPN3,KCNC2,CDKL5,CCDC136,KCNMA1,SPOCK3,PTPN4,PDP1,RGS7BP,PLCB4,GABBR2,ELMO1,ADARB1,ILDR2,AKAP8L,SPTY2D1,PCF11,PARM1,PITX2,PITX1,CLDN9,TCEAL3,KCNK9,TSHB,RORB,GATA2,TIMELESS,CXCL14,APOC3,CGA,ADORA2A,RPRML,CACNB1,KCNQ5,PRKCG,GABRA5,PAX6,PNOC,HTR3A,RELN,CALB2,PDE1A,ADGRL2,KCNIP2,RGS10,NOV,CPNE5,SLC5A7,CRH,GDA,SEMA3E,DLX1,DLX2,DLX5,ARX,NDNF</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>ISL1,MNX1,ISL2,CHAT,VSX2,EN1,EVX1,EVX2,FGF1,LHX3,NKX6-1,NGFR,SIM1</t>
+  </si>
+  <si>
+    <t>Noradrenergic</t>
+  </si>
+  <si>
+    <t>TH,DDC,DBH,SLC18A2,SLC18A3,SLC6A2,SLC39A11,SLC9B2</t>
+  </si>
+  <si>
+    <t>Purkinje</t>
+  </si>
+  <si>
+    <t>CALB1,ABAT,GRIN1,GAD1,HDAC6,PRKG1,ATP2B2,PDE5A,ITPR3,PDE1B,PDE1A,OMP,PDE9A,CBLN1,MRPS35,PVALB,SHANK2,CACNA2D2,NKAIN4,CNTNAP2,TH,CERK,CD3G,KCNA2,SLC22A15,CACNG2,SYT2,CPLX1,PKP4,KCNMA1,ADGRB1,HCN1,SLC24A2,GABRA1,CLSTN3,SLC24A3,DLG4,CNPY1,SLC12A5,SLC32A1,GRIA3,CAMK2A,PENK,HIVEP2,NRIP3,TSHZ1,PCBP3,GPSM1,PPM1E,DLGAP1,GNG4,SHISA8,SYNPR,PRKCA,PCP4L1,PCP4,SLC1A6,GRID2,GAD2</t>
+  </si>
+  <si>
+    <t>Serotonergic</t>
+  </si>
+  <si>
+    <t>TPH1,SLC6A4,FEV,TPH2,DDC,SLC18A2,ESM1,SLC22A3</t>
+  </si>
+  <si>
+    <t>Trigeminal</t>
+  </si>
+  <si>
+    <t>CREBRF,PRKX,PRDM12,DHCR24,CALCA,CALCB,VWA5A,PPP1R1C,AVIL,PIRT,TAC1,PRPH,SCN9A,RUFY2,FAM189B,CLGN,SCN7A,NEFH,GCNT2,ZDHHC2,PARM1,AHNAK2,PHF24,KCNAB2,ATL1,HSPB8,FKBP1B,TLN2,SYNM,GDAP1,DGKZ,PRUNE2,SLC17A6,FGF13,DGKH,CPNE3,CCDC92,SNCG,NICN1,NEFM,RGS7BP,ADD2,PIEZO2,VAMP1,SCN10A</t>
+  </si>
+  <si>
+    <t>T cells</t>
+  </si>
+  <si>
+    <t>Gamma delta</t>
+  </si>
+  <si>
+    <t>GNLY,PTGDS,GZMB,S100B,FGFBP2,NKG7,PRF1,KLRF1,HOPX,CST7,KLRD1,CTSW,SPON2,IFITM1,GZMA,CD247,CLIC3,CD7,ADGRG1,CCL5,TRDC,STMN1,HMGB2,TYMS,MKI67,UBE2C,TUBA1B,ASPM,CENPA,TOP2A,PCNA,AURKB,BIRC5,NUSAP1,TROAP,TUBB,H2AFX,CENPF,CCNB1,H2AFZ,TRGV2,TRGV10,TRGV11,TRGV1,TRGV3,TRGV4,TRGV5,TRGV8,TRGV9,TRGJ1,TRGJ2,TRGJP1,TRGJP2,TRGJP,TRGC1,TRGC2,TRDD1,TRDD2,TRDD3,TRDJ1,TRDJ2,TRDJ3,TRDJ4,TRDV1,TRDV2,TRDV3</t>
+  </si>
+  <si>
+    <t>Natural killer</t>
+  </si>
+  <si>
+    <t>IL12RB2,IL17RA,IL12RB1,KLRB1,RORA,ITGB2,EGR1,MAP3K8,NR4A1,GZMB,TNFRSF8,PRF1,IL2RB,ZBTB16,TBX21,GATA3,NCAM1,S1PR1,STYK1,TCF7,SLAMF7,CXCR4,CD44</t>
+  </si>
+  <si>
+    <t>Naive</t>
+  </si>
+  <si>
+    <t>CD3D,CD4,SELL,CCR7</t>
+  </si>
+  <si>
+    <t>Cytotoxic</t>
+  </si>
+  <si>
+    <t>CD2,CD27,CD28,CD5,CD69,CD8A,GZMB,TRAC</t>
+  </si>
+  <si>
+    <t>Follicular helper</t>
+  </si>
+  <si>
+    <t>BCL6,CD3D,CD4,CD84,IL6R,SLAMF1,CD40LG,CXCR5,TNFSF4,ICOS,PDCD1,CD200,P2RX7</t>
+  </si>
+  <si>
+    <t>Helper</t>
+  </si>
+  <si>
+    <t>IFNG,IL2,TBX21,DPP4,KLRD1,CXCR3,CCR1,CCR5,TNFSF11,HAVCR2,IL18R1,LTBR,TNF,LTA,GATA3,CSF2,IL4,IL5,IL6,IL10,IL13,CCR8,CXCR4,CCR3,CCR7,ICOS,PTGDR2,HAVCR1,IL1R2,IRF4,STAT6,IL17A,IL17F,IL21,IL22,RORA,RORC,CD38,KLRB1,AHR,CCR10,CD3D,CD4,CCR4,CCR6,IL9,CD2,CD28,CD5,IL1RL1,FOXP3,CD3G,TNFRSF4,CD40LG,IL17RB,HPGDS,NFATC2,NFKB1,NR3C1,PPARG</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>SELL,CCR7,CD4,CCR5,CD69,ITGB5,BCL2,GRAP2,TBC1D10C,CYTIP,KPNA4,CD247,EPSTI1,APBB1IP,CD27,RHOH,GIMAP1,ACP5,IKZF1,SP100,DGKA,IL7R,ITGB7,NKG7,CD28,BIN2,RAPGEF6,ARHGEF1,S100A9,ARHGAP15,CD3E,SKAP1,GIMAP4,CD2,PTPRC,LAT,TCF7,LEF1,SEPT1,ARHGAP45,SATB1,PTPRCAP,S100A8,LTB,LCK,TRAC,CD3G,CD3D,TRBC2,CD7,CXCR6,ICOS,CCR6,ITGAE,ENPP1</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>FOXP3,IKZF2,CD4,IL2RA,ENTPD1,SELL,NT5E,ITGAE,TNFRSF4,CTLA4,CCR4,LAG3,IZUMO1R,CNGB1,TNFRSF18,MAF,IL10,IL1R1,ITGB8,LRRC32,FOLR1</t>
   </si>
 </sst>
 </file>
@@ -443,23 +581,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="70.21875" customWidth="1"/>
-    <col min="3" max="3" width="48.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="64.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="48.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.6328125" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -479,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -493,7 +631,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -506,7 +644,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -520,6 +658,248 @@
       <c r="E4" s="7"/>
       <c r="F4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
